--- a/models/ATT2ITM_2/pois/newyorkcity/a8a1966f69d3449e5abd7baf83304295/att_text.xlsx
+++ b/models/ATT2ITM_2/pois/newyorkcity/a8a1966f69d3449e5abd7baf83304295/att_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>text</t>
   </si>
@@ -244,7 +244,13 @@
     <t>The Vessel</t>
   </si>
   <si>
-    <t>no</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
 </sst>
 </file>
@@ -602,623 +608,1085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.03498720750212669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.0736798569560051</v>
+      </c>
+      <c r="C3">
+        <v>-0.09845557063817978</v>
+      </c>
+      <c r="D3">
+        <v>-0.6473420262336731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.01459765248000622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.1328888386487961</v>
+      </c>
+      <c r="C4">
+        <v>-0.4294096827507019</v>
+      </c>
+      <c r="D4">
+        <v>-0.1934336572885513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1033719405531883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.08156732469797134</v>
+      </c>
+      <c r="C5">
+        <v>0.7308037281036377</v>
+      </c>
+      <c r="D5">
+        <v>-1.281879901885986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.197410449385643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.1244414448738098</v>
+      </c>
+      <c r="C6">
+        <v>-0.1111304238438606</v>
+      </c>
+      <c r="D6">
+        <v>0.2743488848209381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006854638922959566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.009116667322814465</v>
+      </c>
+      <c r="C7">
+        <v>0.1993060410022736</v>
+      </c>
+      <c r="D7">
+        <v>0.4583116769790649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01243340875953436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.01626187190413475</v>
+      </c>
+      <c r="C8">
+        <v>0.3036954402923584</v>
+      </c>
+      <c r="D8">
+        <v>0.2441950738430023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1445527076721191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.09034628421068192</v>
+      </c>
+      <c r="C9">
+        <v>-0.392901211977005</v>
+      </c>
+      <c r="D9">
+        <v>-1.086546063423157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.106467679142952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.03815468400716782</v>
+      </c>
+      <c r="C10">
+        <v>-0.1438717097043991</v>
+      </c>
+      <c r="D10">
+        <v>-0.5988065004348755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.04224123805761337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.01854533329606056</v>
+      </c>
+      <c r="C11">
+        <v>0.04469442740082741</v>
+      </c>
+      <c r="D11">
+        <v>-0.9552478790283203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0408497154712677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.02537021785974503</v>
+      </c>
+      <c r="C12">
+        <v>-0.7687568664550781</v>
+      </c>
+      <c r="D12">
+        <v>-0.09125031530857086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01412267982959747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.001659866305999458</v>
+      </c>
+      <c r="C13">
+        <v>-0.6606751680374146</v>
+      </c>
+      <c r="D13">
+        <v>-0.7830687761306763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.06143393367528915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.06359819322824478</v>
+      </c>
+      <c r="C14">
+        <v>-0.8224231600761414</v>
+      </c>
+      <c r="D14">
+        <v>-1.374757289886475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.05108198150992393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.003189159324392676</v>
+      </c>
+      <c r="C15">
+        <v>-0.115962952375412</v>
+      </c>
+      <c r="D15">
+        <v>-0.7566757798194885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1823663413524628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.08166360855102539</v>
+      </c>
+      <c r="C16">
+        <v>-1.501039981842041</v>
+      </c>
+      <c r="D16">
+        <v>-0.6310262084007263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.08061791211366653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>-0.1143799275159836</v>
+      </c>
+      <c r="C17">
+        <v>-0.8636950850486755</v>
+      </c>
+      <c r="D17">
+        <v>-0.8475309014320374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1727433502674103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>-0.03191904723644257</v>
+      </c>
+      <c r="C18">
+        <v>-0.3419467508792877</v>
+      </c>
+      <c r="D18">
+        <v>-0.665745735168457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.06803949922323227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>-0.05275879800319672</v>
+      </c>
+      <c r="C19">
+        <v>-0.8923318386077881</v>
+      </c>
+      <c r="D19">
+        <v>-0.9817314147949219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.07002707570791245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.1257092952728271</v>
+      </c>
+      <c r="C20">
+        <v>-0.2374632656574249</v>
+      </c>
+      <c r="D20">
+        <v>-0.7090175151824951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1157699227333069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.09889305382966995</v>
+      </c>
+      <c r="C21">
+        <v>-0.1438355445861816</v>
+      </c>
+      <c r="D21">
+        <v>-0.8038159012794495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03778018057346344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.04372112825512886</v>
+      </c>
+      <c r="C22">
+        <v>-0.4858046472072601</v>
+      </c>
+      <c r="D22">
+        <v>-0.03358093649148941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.04581120610237122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.001653177663683891</v>
+      </c>
+      <c r="C23">
+        <v>-0.3914154171943665</v>
+      </c>
+      <c r="D23">
+        <v>-0.2639600336551666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.05179591476917267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.1095148921012878</v>
+      </c>
+      <c r="C24">
+        <v>-0.0146065354347229</v>
+      </c>
+      <c r="D24">
+        <v>-0.1808221638202667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.02425990253686905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.03407404944300652</v>
+      </c>
+      <c r="C25">
+        <v>1.224791526794434</v>
+      </c>
+      <c r="D25">
+        <v>-0.3628155589103699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.1796188056468964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.009435916319489479</v>
+      </c>
+      <c r="C26">
+        <v>-1.519735813140869</v>
+      </c>
+      <c r="D26">
+        <v>-0.08775120228528976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1397372633218765</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.02574741281569004</v>
+      </c>
+      <c r="C27">
+        <v>-0.6909896731376648</v>
+      </c>
+      <c r="D27">
+        <v>-0.2720352709293365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.03919568657875061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.06472553312778473</v>
+      </c>
+      <c r="C28">
+        <v>-0.1008885875344276</v>
+      </c>
+      <c r="D28">
+        <v>-0.9182127118110657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.06383685022592545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.01556904334574938</v>
+      </c>
+      <c r="C29">
+        <v>-0.362311989068985</v>
+      </c>
+      <c r="D29">
+        <v>-0.4312247037887573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.03043298050761223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.04464378580451012</v>
+      </c>
+      <c r="C30">
+        <v>-0.03647244721651077</v>
+      </c>
+      <c r="D30">
+        <v>-1.062228322029114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.0182302612811327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.0765344575047493</v>
+      </c>
+      <c r="C31">
+        <v>-0.2540595233440399</v>
+      </c>
+      <c r="D31">
+        <v>-0.5915539264678955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.208138182759285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.06975648552179337</v>
+      </c>
+      <c r="C32">
+        <v>-0.891244649887085</v>
+      </c>
+      <c r="D32">
+        <v>-0.005934901535511017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1021335422992706</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.1064347922801971</v>
+      </c>
+      <c r="C33">
+        <v>-0.5128174424171448</v>
+      </c>
+      <c r="D33">
+        <v>-0.05406105518341064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2725078165531158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.02234763465821743</v>
+      </c>
+      <c r="C34">
+        <v>-0.4266732037067413</v>
+      </c>
+      <c r="D34">
+        <v>-0.4627135097980499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2737634181976318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.07041694968938828</v>
+      </c>
+      <c r="C35">
+        <v>-1.199720621109009</v>
+      </c>
+      <c r="D35">
+        <v>-0.9974783062934875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.01617588102817535</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.01600004732608795</v>
+      </c>
+      <c r="C36">
+        <v>0.4224062263965607</v>
+      </c>
+      <c r="D36">
+        <v>-0.6060130596160889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01077827904373407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.09509336948394775</v>
+      </c>
+      <c r="C37">
+        <v>-0.2022601962089539</v>
+      </c>
+      <c r="D37">
+        <v>-0.2298969328403473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1028986275196075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.04793576151132584</v>
+      </c>
+      <c r="C38">
+        <v>-1.490705966949463</v>
+      </c>
+      <c r="D38">
+        <v>-0.5233082175254822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.003158468287438154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.004891172517091036</v>
+      </c>
+      <c r="C39">
+        <v>-1.088174223899841</v>
+      </c>
+      <c r="D39">
+        <v>-1.26907205581665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2543051540851593</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.117476724088192</v>
+      </c>
+      <c r="C40">
+        <v>-0.6045960187911987</v>
+      </c>
+      <c r="D40">
+        <v>0.02225354127585888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2341820448637009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.03504165634512901</v>
+      </c>
+      <c r="C41">
+        <v>-1.071968913078308</v>
+      </c>
+      <c r="D41">
+        <v>-0.03096545860171318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.06505826860666275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.02822196111083031</v>
+      </c>
+      <c r="C42">
+        <v>-0.2782507240772247</v>
+      </c>
+      <c r="D42">
+        <v>-0.602362334728241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.09558272361755371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.1130416765809059</v>
+      </c>
+      <c r="C43">
+        <v>-0.9248490929603577</v>
+      </c>
+      <c r="D43">
+        <v>-0.485534280538559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1976200193166733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.02513223141431808</v>
+      </c>
+      <c r="C44">
+        <v>-0.3583783507347107</v>
+      </c>
+      <c r="D44">
+        <v>-1.137990355491638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.09796289354562759</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.0910203754901886</v>
+      </c>
+      <c r="C45">
+        <v>-1.613126277923584</v>
+      </c>
+      <c r="D45">
+        <v>-1.032110810279846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.07055915147066116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.0183254349976778</v>
+      </c>
+      <c r="C46">
+        <v>-0.5189296007156372</v>
+      </c>
+      <c r="D46">
+        <v>0.2413332909345627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.03781124949455261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003785684704780579</v>
+      </c>
+      <c r="C47">
+        <v>-0.03576439619064331</v>
+      </c>
+      <c r="D47">
+        <v>-0.6572417616844177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.04897855594754219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.03244208917021751</v>
+      </c>
+      <c r="C48">
+        <v>1.21828031539917</v>
+      </c>
+      <c r="D48">
+        <v>-0.4632425010204315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.1162897571921349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0119585394859314</v>
+      </c>
+      <c r="C49">
+        <v>-0.3715414106845856</v>
+      </c>
+      <c r="D49">
+        <v>-0.4222998321056366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.09215285629034042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.0007793116383254528</v>
+      </c>
+      <c r="C50">
+        <v>0.06135842949151993</v>
+      </c>
+      <c r="D50">
+        <v>-0.1698673516511917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.04408533498644829</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.007041928824037313</v>
+      </c>
+      <c r="C51">
+        <v>0.3971801400184631</v>
+      </c>
+      <c r="D51">
+        <v>-0.8865013122558594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0186108723282814</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.1032417789101601</v>
+      </c>
+      <c r="C52">
+        <v>-0.7957753539085388</v>
+      </c>
+      <c r="D52">
+        <v>-0.4643434286117554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1049033924937248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.009931512176990509</v>
+      </c>
+      <c r="C53">
+        <v>-1.185221910476685</v>
+      </c>
+      <c r="D53">
+        <v>-0.6880486011505127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.009653937071561813</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.005016414914280176</v>
+      </c>
+      <c r="C54">
+        <v>-1.138296246528625</v>
+      </c>
+      <c r="D54">
+        <v>-0.2786420285701752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.004853752441704273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.03892494738101959</v>
+      </c>
+      <c r="C55">
+        <v>-0.812811017036438</v>
+      </c>
+      <c r="D55">
+        <v>-0.9371451139450073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.2523138821125031</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.06235362589359283</v>
+      </c>
+      <c r="C56">
+        <v>0.1349718123674393</v>
+      </c>
+      <c r="D56">
+        <v>-0.6868211627006531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0697038322687149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>-0.001222767750732601</v>
+      </c>
+      <c r="C57">
+        <v>-0.4554200172424316</v>
+      </c>
+      <c r="D57">
+        <v>-0.4871425032615662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1176621094346046</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.09437447786331177</v>
+      </c>
+      <c r="C58">
+        <v>-1.347761750221252</v>
+      </c>
+      <c r="D58">
+        <v>-0.4790427088737488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1422450691461563</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0001820788020268083</v>
+      </c>
+      <c r="C59">
+        <v>-0.8337944746017456</v>
+      </c>
+      <c r="D59">
+        <v>-0.4073120355606079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.07419031113386154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02553093433380127</v>
+      </c>
+      <c r="C60">
+        <v>-0.4566717147827148</v>
+      </c>
+      <c r="D60">
+        <v>-0.01046924293041229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2173876315355301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.05359790846705437</v>
+      </c>
+      <c r="C61">
+        <v>-0.6442914605140686</v>
+      </c>
+      <c r="D61">
+        <v>-0.3452913761138916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.09852874279022217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.00814608670771122</v>
+      </c>
+      <c r="C62">
+        <v>-0.327457994222641</v>
+      </c>
+      <c r="D62">
+        <v>-1.133238196372986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.04879798740148544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.03286954388022423</v>
+      </c>
+      <c r="C63">
+        <v>-0.5060845613479614</v>
+      </c>
+      <c r="D63">
+        <v>-1.445027947425842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1080875098705292</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.03925111889839172</v>
+      </c>
+      <c r="C64">
+        <v>0.1651875078678131</v>
+      </c>
+      <c r="D64">
+        <v>-1.73265552520752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.08858093619346619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.002027218695729971</v>
+      </c>
+      <c r="C65">
+        <v>-0.432831346988678</v>
+      </c>
+      <c r="D65">
+        <v>-1.38742733001709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.09761840105056763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.2080650478601456</v>
+      </c>
+      <c r="C66">
+        <v>-1.041638255119324</v>
+      </c>
+      <c r="D66">
+        <v>-1.200548768043518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01802289672195911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.07064427435398102</v>
+      </c>
+      <c r="C67">
+        <v>-0.7531635165214539</v>
+      </c>
+      <c r="D67">
+        <v>-0.5139378309249878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.08148562163114548</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.03034025244414806</v>
+      </c>
+      <c r="C68">
+        <v>-1.242913007736206</v>
+      </c>
+      <c r="D68">
+        <v>-0.1935423016548157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.2536786198616028</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.02752523496747017</v>
+      </c>
+      <c r="C69">
+        <v>-1.24320387840271</v>
+      </c>
+      <c r="D69">
+        <v>0.09672243148088455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.05431023985147476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.0003506243228912354</v>
+      </c>
+      <c r="C70">
+        <v>-0.9120315313339233</v>
+      </c>
+      <c r="D70">
+        <v>-0.3572320938110352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.01494793966412544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.1128904297947884</v>
+      </c>
+      <c r="C71">
+        <v>-0.9675275683403015</v>
+      </c>
+      <c r="D71">
+        <v>-0.9904180765151978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1330546736717224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.05656903609633446</v>
+      </c>
+      <c r="C72">
+        <v>-0.6107912063598633</v>
+      </c>
+      <c r="D72">
+        <v>-0.9940752983093262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.08545927703380585</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03155222535133362</v>
+      </c>
+      <c r="C73">
+        <v>-1.453340768814087</v>
+      </c>
+      <c r="D73">
+        <v>-0.6869400143623352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.07341036945581436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.01844800263643265</v>
+      </c>
+      <c r="C74">
+        <v>-0.2009387910366058</v>
+      </c>
+      <c r="D74">
+        <v>-1.227931976318359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01308199763298035</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.03541775047779083</v>
+      </c>
+      <c r="C75">
+        <v>-1.332817196846008</v>
+      </c>
+      <c r="D75">
+        <v>-0.802043080329895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.1152563467621803</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.1032703071832657</v>
+      </c>
+      <c r="C76">
+        <v>-0.8805277347564697</v>
+      </c>
+      <c r="D76">
+        <v>-0.4153627753257751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.0294896587729454</v>
+        <v>-0.02331924811005592</v>
+      </c>
+      <c r="C77">
+        <v>-0.8858993649482727</v>
+      </c>
+      <c r="D77">
+        <v>-0.7895330786705017</v>
       </c>
     </row>
   </sheetData>
